--- a/hours/Hours.xlsx
+++ b/hours/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -359,6 +359,61 @@
   </si>
   <si>
     <t xml:space="preserve">read article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on presentation and portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra credit information, submitted biweekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">science kit lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">independent work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freshman recruitment thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlation lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean webinar info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on presentation, data, practiced presentation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">correlation assignment, worked on presentation, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fixed python environment</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cleaned up figs for presentation, edited script, worked on data, contacted mentor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practiced with Marcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnie’s and Sadaf’s presentations</t>
   </si>
 </sst>
 </file>
@@ -371,9 +426,9 @@
     <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="167" formatCode="h:mm"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="\ * #,##0.00\ ;\ * \(#,##0.00\);\ * \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -395,6 +450,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -569,7 +631,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -583,13 +645,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E135" activeCellId="0" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="11.5"/>
@@ -636,7 +698,7 @@
         <v>0.347222222222222</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.368055555555556</v>
+        <v>0.368055555555555</v>
       </c>
       <c r="D2" s="3" t="n">
         <f aca="false">C2-B2</f>
@@ -647,15 +709,15 @@
       </c>
       <c r="G2" s="4" t="n">
         <f aca="true">CEILING(NOW()-A93, 1)</f>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H2" s="5" t="n">
         <f aca="false">(SUM(D93:D120))*24</f>
-        <v>19.0333333333333</v>
+        <v>22.7166666666667</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.0377645502645503</v>
+        <v>0.0201388888888889</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +767,7 @@
         <v>44091</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.711805555555555</v>
+        <v>0.711805555555556</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.739583333333333</v>
@@ -981,7 +1043,7 @@
         <v>0.34375</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.368055555555556</v>
+        <v>0.368055555555555</v>
       </c>
       <c r="D20" s="3" t="n">
         <f aca="false">C20-B20</f>
@@ -1032,7 +1094,7 @@
         <v>44104</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.743055555555555</v>
+        <v>0.743055555555556</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.768055555555556</v>
@@ -2121,7 +2183,7 @@
         <v>0.34375</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.368055555555556</v>
+        <v>0.368055555555555</v>
       </c>
       <c r="D83" s="3" t="n">
         <f aca="false">C83-B83</f>
@@ -2378,7 +2440,7 @@
         <v>0.34375</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.368055555555556</v>
+        <v>0.368055555555555</v>
       </c>
       <c r="D97" s="3" t="n">
         <f aca="false">C97-B97</f>
@@ -2501,14 +2563,14 @@
         <v>44172</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>0.263888888888889</v>
+        <v>0.763888888888889</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>0.291666666666667</v>
+        <v>0.802083333333333</v>
       </c>
       <c r="D104" s="3" t="n">
         <f aca="false">C104-B104</f>
-        <v>0.0277777777777778</v>
+        <v>0.0381944444444444</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>102</v>
@@ -2658,7 +2720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>44179</v>
       </c>
@@ -2676,7 +2738,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>44180</v>
       </c>
@@ -2717,14 +2779,14 @@
         <v>44182</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>0.868055555555556</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0.890972222222222</v>
       </c>
       <c r="D116" s="3" t="n">
         <f aca="false">C116-B116</f>
-        <v>0.0229166666666667</v>
+        <v>0.0368055555555556</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>111</v>
@@ -2758,46 +2820,341 @@
         <v>0.434027777777778</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>0.44375</v>
+        <v>0.510416666666667</v>
       </c>
       <c r="D118" s="3" t="n">
         <f aca="false">C118-B118</f>
-        <v>0.00972222222222222</v>
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="F118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>44186</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D119" s="3" t="n">
+        <f aca="false">C119-B119</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>44187</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D120" s="3" t="n">
+        <f aca="false">C120-B120</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>115</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>44188</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D121" s="3" t="n">
+        <f aca="false">C121-B121</f>
+        <v>0.0173611111111111</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>44200</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D122" s="3" t="n">
+        <f aca="false">C122-B122</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>117</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D123" s="3" t="n">
+        <f aca="false">C123-B123</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="3"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="n">
+        <v>44202</v>
+      </c>
+      <c r="B124" s="8" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="C124" s="8" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D124" s="9" t="n">
+        <f aca="false">C124-B124</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D125" s="9" t="n">
+        <f aca="false">C125-B125</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.705555555555555</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="D126" s="9" t="n">
+        <f aca="false">C126-B126</f>
+        <v>0.0652777777777778</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="H126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.434027777777778</v>
+      </c>
+      <c r="D127" s="9" t="n">
+        <f aca="false">C127-B127</f>
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>44206</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D128" s="9" t="n">
+        <f aca="false">C128-B128</f>
+        <v>0.100694444444444</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D129" s="9" t="n">
+        <f aca="false">C129-B129</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.784722222222222</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.829861111111111</v>
+      </c>
+      <c r="D130" s="9" t="n">
+        <f aca="false">C130-B130</f>
+        <v>0.0451388888888889</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>44208</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D131" s="9" t="n">
+        <f aca="false">C131-B131</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>44209</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D132" s="9" t="n">
+        <f aca="false">C132-B132</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D133" s="9" t="n">
+        <f aca="false">C133-B133</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D134" s="9" t="n">
+        <f aca="false">C134-B134</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D135" s="9" t="n">
+        <f aca="false">C135-B135</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F117:F126 H117:H126 D1:D1048576">

--- a/hours/Hours.xlsx
+++ b/hours/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -414,6 +414,24 @@
   </si>
   <si>
     <t xml:space="preserve">Winnie’s and Sadaf’s presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submitted intent to present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micaela presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned r and concatenated datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joshua presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalized portfolio</t>
   </si>
 </sst>
 </file>
@@ -645,10 +663,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E135" activeCellId="0" sqref="E135"/>
+      <selection pane="topLeft" activeCell="E145" activeCellId="0" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,16 +726,16 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="n">
-        <f aca="true">CEILING(NOW()-A93, 1)</f>
-        <v>47</v>
+        <f aca="true">CEILING(NOW()-A124, 1)</f>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="n">
-        <f aca="false">(SUM(D93:D120))*24</f>
-        <v>22.7166666666667</v>
+        <f aca="false">(SUM(D124:D137))*24</f>
+        <v>13.65</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.0201388888888889</v>
+        <v>0.0299342105263158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,6 +3172,168 @@
       </c>
       <c r="E135" s="0" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D136" s="9" t="n">
+        <f aca="false">C136-B136</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>44215</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D137" s="9" t="n">
+        <f aca="false">C137-B137</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D138" s="9" t="n">
+        <f aca="false">C138-B138</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.680555555555556</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.743055555555556</v>
+      </c>
+      <c r="D139" s="9" t="n">
+        <f aca="false">C139-B139</f>
+        <v>0.0625</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D140" s="9" t="n">
+        <f aca="false">C140-B140</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="D141" s="9" t="n">
+        <f aca="false">C141-B141</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D142" s="9" t="n">
+        <f aca="false">C142-B142</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.465277777777778</v>
+      </c>
+      <c r="D143" s="9" t="n">
+        <f aca="false">C143-B143</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>44220</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.569444444444444</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="D144" s="9" t="n">
+        <f aca="false">C144-B144</f>
+        <v>0.00694444444444444</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/hours/Hours.xlsx
+++ b/hours/Hours.xlsx
@@ -665,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E145" activeCellId="0" sqref="E145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,12 +730,12 @@
         <v>19</v>
       </c>
       <c r="H2" s="5" t="n">
-        <f aca="false">(SUM(D124:D137))*24</f>
-        <v>13.65</v>
+        <f aca="false">(SUM(D124:D150))*24</f>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.0299342105263158</v>
+        <v>0.0416666666666666</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,11 +3326,11 @@
         <v>0.569444444444444</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>0.576388888888889</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D144" s="9" t="n">
         <f aca="false">C144-B144</f>
-        <v>0.00694444444444444</v>
+        <v>0.025</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>130</v>

--- a/hours/Hours.xlsx
+++ b/hours/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="209">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -905,10 +905,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A220" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E247" activeCellId="0" sqref="E247"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A248" activeCellId="0" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="G2" s="4" t="n">
         <f aca="true">CEILING(NOW()-A124, 1)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H2" s="5" t="n">
         <f aca="false">(SUM(D218:D240))*24</f>
@@ -977,7 +977,7 @@
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.00580929487179487</v>
+        <v>0.00577229299363057</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,6 +5431,24 @@
         <v>0.03125</v>
       </c>
       <c r="E246" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D247" s="3" t="n">
+        <f aca="false">C247-B247</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E247" s="0" t="s">
         <v>97</v>
       </c>
     </row>
